--- a/AAII_Financials/Quarterly/RMHB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMHB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/RMHB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMHB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>RMHB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,86 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -756,33 +759,36 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -797,27 +803,30 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -847,13 +856,16 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,40 +979,43 @@
         <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
       </c>
       <c r="H17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2000</v>
       </c>
       <c r="N17" s="3">
         <v>2000</v>
       </c>
       <c r="O17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-1100</v>
       </c>
       <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,95 +1178,102 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1242,76 +1281,82 @@
       <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,8 +1967,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1894,23 +1980,23 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1923,8 +2009,11 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,17 +2053,20 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -1990,8 +2082,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
@@ -2005,22 +2097,25 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2031,8 +2126,8 @@
       <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
@@ -2046,19 +2141,22 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -2067,14 +2165,14 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2087,35 +2185,38 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1200</v>
       </c>
       <c r="G46" s="3">
         <v>1200</v>
       </c>
       <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2128,8 +2229,11 @@
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2195,8 +2302,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
@@ -2210,8 +2317,11 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2219,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2230,8 +2340,8 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2251,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2351,17 +2470,17 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2374,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,35 +2537,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1400</v>
       </c>
       <c r="G54" s="3">
         <v>1400</v>
       </c>
       <c r="H54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2456,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,34 +2619,35 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
+      <c r="K57" s="3">
+        <v>400</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
@@ -2531,35 +2661,38 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
       </c>
       <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2572,35 +2705,38 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2613,16 +2749,19 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2100</v>
       </c>
       <c r="F60" s="3">
         <v>2100</v>
@@ -2631,17 +2770,17 @@
         <v>2100</v>
       </c>
       <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2654,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,16 +3013,19 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2100</v>
       </c>
       <c r="F66" s="3">
         <v>2100</v>
@@ -2877,17 +3034,17 @@
         <v>2100</v>
       </c>
       <c r="H66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2900,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,35 +3251,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3122,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,35 +3427,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3286,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3670,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3749,8 +3969,8 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3771,13 +3991,16 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,8 +4084,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3894,13 +4123,16 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +4322,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-300</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>
       </c>
       <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RMHB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RMHB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>RMHB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -762,36 +766,39 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -806,31 +813,34 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-400</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -859,13 +869,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,52 +987,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>2000</v>
       </c>
       <c r="P17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-1100</v>
       </c>
       <c r="I18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1212,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,95 +1222,101 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1284,79 +1324,85 @@
       <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1774,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,87 +1786,93 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2054,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1983,23 +2070,23 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2012,8 +2099,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,8 +2146,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2065,11 +2158,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2085,8 +2178,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2109,16 +2205,16 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2129,8 +2225,8 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
@@ -2144,8 +2240,11 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,13 +2252,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -2168,14 +2267,14 @@
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2188,8 +2287,11 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2197,29 +2299,29 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1200</v>
       </c>
       <c r="H46" s="3">
         <v>1200</v>
       </c>
       <c r="I46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2381,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2305,8 +2413,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
@@ -2320,8 +2428,11 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2332,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2343,8 +2454,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,17 +2593,17 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2663,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2549,29 +2675,29 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1400</v>
       </c>
       <c r="H54" s="3">
         <v>1400</v>
       </c>
       <c r="I54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,37 +2750,38 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
+      <c r="L57" s="3">
+        <v>400</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2673,29 +2807,29 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2708,38 +2842,41 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2752,19 +2889,22 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2100</v>
       </c>
       <c r="G60" s="3">
         <v>2100</v>
@@ -2773,17 +2913,17 @@
         <v>2100</v>
       </c>
       <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,19 +3171,22 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2100</v>
       </c>
       <c r="G66" s="3">
         <v>2100</v>
@@ -3037,17 +3195,17 @@
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,38 +3425,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-37900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-36900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-34000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,38 +3613,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3972,8 +4193,8 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3994,13 +4215,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4314,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4126,13 +4356,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4568,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4662,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-300</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>
       </c>
       <c r="K102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>
